--- a/biology/Neurosciences/Colliculus/Colliculus.xlsx
+++ b/biology/Neurosciences/Colliculus/Colliculus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colliculi (singulier : colliculus ; du latin, signifiant "mont", "colline") ou tubercules quadrijumeaux sont quatre petites masses arrondies de l'encéphale humain, situées sur la face postérieure du mésencéphale, la partie supérieure du tronc cérébral. 
 </t>
@@ -511,9 +523,11 @@
           <t>Disposition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les colliculi sont au nombre de quatre : deux supérieurs (ou antérieurs), placés plus haut et en avant, et deux inférieurs (ou postérieurs), placés plus bas et en arrière[1]. Ils se situent au niveau du tectum, en arrière de l'aqueduc du mésencéphale. La glande pinéale (ou épiphyse), qui appartient au diencéphale, est maintenue juste au-dessus des colliculi supérieurs et est appendue entre eux. Latéralement en haut se trouvent les thalamus du diencéphale ; latéralement en avant sont situés les pédoncules cérébraux. En dessous des colliculi inférieurs se trouve l'émergence des nerfs trochléaires, médiale, au niveau du voile médullaire supérieur, qui est encadré des pédoncules cérébelleux supérieurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les colliculi sont au nombre de quatre : deux supérieurs (ou antérieurs), placés plus haut et en avant, et deux inférieurs (ou postérieurs), placés plus bas et en arrière. Ils se situent au niveau du tectum, en arrière de l'aqueduc du mésencéphale. La glande pinéale (ou épiphyse), qui appartient au diencéphale, est maintenue juste au-dessus des colliculi supérieurs et est appendue entre eux. Latéralement en haut se trouvent les thalamus du diencéphale ; latéralement en avant sont situés les pédoncules cérébraux. En dessous des colliculi inférieurs se trouve l'émergence des nerfs trochléaires, médiale, au niveau du voile médullaire supérieur, qui est encadré des pédoncules cérébelleux supérieurs.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le colliculus supérieur coordonne les mouvements des yeux et de la tête, tandis que le colliculus inférieur fait partie de la voie auditive ascendante entre l'oreille et le cortex auditif[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le colliculus supérieur coordonne les mouvements des yeux et de la tête, tandis que le colliculus inférieur fait partie de la voie auditive ascendante entre l'oreille et le cortex auditif.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Article Tubercules quadrijumeaux », sur Imago Mundi (encyclopédie en ligne)</t>
         </is>
